--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/36_Hakkari_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/36_Hakkari_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AAA5FC0-042E-4297-B58B-D1BEE23EA488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755BB2BD-8876-4EC2-BD84-749DA8071A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{6A518B90-E37D-44D9-99DB-AE12EA533F9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{A0198753-1134-4E68-9910-5399C04C3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3C6F3DD6-4202-459C-A673-C5E1D95C8169}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A387A20C-77D1-4376-B0DF-E34CE9B61D27}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{BAA0BF60-66D9-4EF2-9328-B555E5F3F603}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9B0A6CBB-C1D2-4140-BBE7-5DBB571FDC0F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{681E6B22-33CD-4451-BA9A-C8611EA6322E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1208176C-C10E-4B94-8690-4E94868A707C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{26607A76-5A3C-4805-964F-28AB430EDB1C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{075F4D1A-2A52-4437-AC53-6EB0296318D3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{65401DF4-DE97-4723-BFFC-123EB226FA89}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{36A2B558-7A43-422C-B76E-B44EA0D90FF0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C3B2CB6B-4132-42B2-A3AE-0CA7E7686A6C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BFA377A5-26A4-4F8A-BE48-0406536BEF9E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9C4CDC3F-73E2-4E7E-9B0D-6CEC683351A6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{795F8E5D-9699-411D-9E35-324C9BD0C747}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D03D43-D448-47F7-A0B1-98E954643484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CF7138-B6D7-4F8E-A75F-E532CAC02DCF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2520,18 +2520,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BFC3326-3A40-453A-B30A-B20354BB2C79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20F0D5FA-CD7E-412D-8AB9-A7FC8A1AFDD7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A71BFC01-DC2D-4613-BB46-BADC88504223}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B154F32-B695-4367-887B-F464B2D807C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9DE274F-EE91-4385-996F-7EC3A822533C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{718CCAA0-E5B8-473A-8B39-107D0B48D879}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32D10344-28EF-475F-8506-9B7C505DF77D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E0811F2-0F92-4D48-8964-09AADDAE0847}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0FA0BFB-17D6-4E09-95A2-58AB877EE6F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A7C384B-99CE-4E0C-9F2C-612AF24D4C0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62C5D4D5-D17D-4679-BB59-A40DDC52648A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{570E8E89-77BD-44BC-9738-A6D1C562E6D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{483C761C-B313-4D4D-B7E6-B8317A177472}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C861FDC0-F79F-4731-B91D-8B30566A2F68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05FEE522-83FC-4957-A4A9-470C302CBA6E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9774D810-8694-4205-AAED-02E47E273389}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4ED4BC8F-C247-4A03-9C6C-F7345D59DBB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E3D6A73-0A87-402D-9985-93DB12088FB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53D3D5DA-FE25-4763-9070-E09D9DB3983F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B56BB5BF-B4DB-4CAC-9B05-8E21A763C675}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F19F873-0B33-4EFA-A2C8-F1503D011AD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCF593D6-C34D-4C98-BE5F-3672FEB42887}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BD72F3C-4FA4-48E4-949C-EDD30054BE01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ECB3DC8-7464-4D64-A25D-EA2460399259}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2544,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E2879-9787-4C0F-AFF6-61FFDF5D665C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E2456A-D47B-4121-AB44-F88F9E9C4E30}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3732,18 +3732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A91B8C5-5EFE-46B2-A7AC-11BA8EB188B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C4845FE-DF77-4193-B939-A3978B708BE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E428AD06-33EE-4C15-86AB-FFC04B5194E2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89C49708-4DA7-4293-B78A-281E54EAB384}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D243D55-2E74-449C-AF60-9C90A3E96407}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{950BB98B-55B2-4E54-9D1C-90A27A0705B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67DDBE14-BC66-4EBE-9A31-AF4FA3134E59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B52A2552-6187-43F5-8369-7CF550816124}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD434005-19A6-4309-A4A3-5BEA591211D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61B1BE70-2FA8-45D0-84A4-204C3B301D5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2189EA33-79FE-4548-BDC0-310D1DF1E964}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62AA0E80-E391-40B1-95B9-9CA9F35AF76E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19018F83-6581-40AF-A9DC-8742DB866A0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{817113C8-D148-49F5-A123-A4674422C3EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{056A639A-95B8-4D16-8BEF-9B7218142F9D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1AE7CB7E-6673-4EE8-BC54-B7B5736A14FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E214D869-AE0A-486E-B22F-ED6F6F60C90A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9118725-EDD6-4B9F-B15D-21614FD18CB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32D402D4-F7F3-490C-804B-A4BE76004780}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADB9CDEF-03A8-4CFE-83AD-C715E740ECA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EB5735A-012B-4C75-86A6-7A3B326A9BF6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46F15DE3-50BB-4F30-A3E4-0ADC9735617A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCA57481-5B1F-4D83-BEF1-C8F01C674B3B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C88A87C1-871C-4D57-ABB9-2D35452D7F92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3756,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3984C0-8A7E-42AC-AC75-8DC2EB9B2F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0647FE79-B621-4AC5-BF42-2C75E8ACF2B7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4944,18 +4944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73DB6D73-4AB5-42A8-9F8C-29DB57A84609}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{614EF96D-6DEF-49B5-97DE-D047576FDC2C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CDC4CD4-73D4-42DE-AF09-31D6B41C25AD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2CC03DFF-4E36-4BFE-99A9-B62421106433}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6277EA85-8532-4C35-AA9B-F7C02616578B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18569BE7-D396-4CF2-A018-89B15C9080E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6523438F-B582-4930-94A1-FCC4D6AE1E21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6E2DAC8-AFEE-4A7D-B512-700066E17242}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DA722BA-262A-4DA1-9629-F6855A5AC773}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94D21A66-F8B2-49C0-9ACF-8337E83142BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0AC0691-DC34-44BB-9844-880E564060C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE313D0E-DFD3-4F96-9413-E609FF57DCD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7938481E-1FE9-4281-8E1D-98688E48BDD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB0F89D2-918E-41A3-A69D-21AFD00081E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14695CCC-9887-4874-B71D-1C06CB2F162E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80C70B8F-36B5-47BA-88F1-766E3722A835}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F65544A-F9D1-454A-9FCA-0E68C111E7F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{341701FB-4D70-42D6-9B3C-9C826F6C63FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB13A329-CC93-4377-AB7D-7C7115EC062E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BC893D5-7B80-4ABE-8A1F-335EF504BF06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC90650F-0EBC-48CA-8F57-B6C2E65987FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE990C82-DC61-4227-AD95-6F801DC7CAB0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6C2B892-8456-400C-8F6D-A0D094F44363}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53D8ADC4-55D1-4D13-9400-BE3C200BAF4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4968,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C818D-F08A-407A-95CB-6D794BCD934F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F668B-EC18-4E28-95F1-74925A10728F}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6152,18 +6152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{307C3A55-56FB-4ED8-A770-DA44B312154F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E4AD934-97AD-4254-85B0-D6ACD115434A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2A40A84-F56D-4BC8-B4CB-66BE387F5590}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D721585-E542-4439-A40F-C132004AFE92}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79B9445B-A9D7-43D0-BEDE-96D415F806C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{063798A6-1F5B-41CF-BFD1-C57FF831932B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6630DB9-1D63-41E2-ACA8-60296B10835D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31F9B810-AB9E-412C-8BF5-DEBCFA3879B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34E77548-FBD0-4EA3-944B-3BF1B59A2601}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6919F044-8F27-415D-9297-C77019AC8BCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6978DEB2-87CD-420F-B713-D70BD61AEA11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40CE29E7-7159-477B-8447-D8655557876B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E170463-CB50-4E66-A660-E729BD2B7641}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{932DF218-F79B-4BED-B49A-F58698A39BEE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12305013-46C8-4EEA-981B-4812F9BFDAAA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7DB8D7EB-3F9A-472E-83BB-31C0A864C38D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52F6D7C8-1E22-4D7C-85E1-C28C812E048E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF83DC1B-3B61-4F01-896B-C96BB4F9D5B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5D06373-96CC-47F4-8E88-3E8E6975BBBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A2A4523-A332-40D9-9B73-F22E0DAA455B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72C17040-BA4B-4792-8938-C801C45CBD49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0B06BBD-F946-4DF0-BA71-FD25ED2CF5F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{208CCB17-BCC2-4DBB-A3B6-41D0AB2FAFB7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0E427D1-26AA-4509-B95E-3B5BECB014F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A0872-B6A4-45B0-A699-E7B0D543EEB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D39D6C-3631-46CD-BB73-7A981AFE8A9C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7383,18 +7383,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F835BE5B-C6B4-491B-BD6B-4DDA1CC628CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88E347B6-8731-4B95-8174-5A4782DB612A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77EA28D0-574C-4BD7-93D5-85ED9A077D52}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7C2896C-FEB7-4636-9AB6-EAA606D0C6A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4703E12F-AE3D-485F-A62D-8A6159DF489F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B5224D6-85AE-47AC-8479-E7443CD05B58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03A36FB8-FA4D-4405-8BD6-4B9105B48F4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3BD71D6-8095-4071-B377-3B1D321C84F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65B4979C-5144-4B42-8DCE-C06A8C71DF1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3A821781-7610-4B1C-916F-54A08F8C8118}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4DED43A-00B0-40F1-86A4-6D725A67C2FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1BC914A-B8C1-412E-8194-940336331166}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F601E2C-289C-479A-B003-09F1C921EB6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FAF93D0-6161-42F8-B5BB-CD3B367AB098}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{525293BB-B753-4335-9F8B-174630B42B7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D705E5C1-4C5E-4F4C-AC79-027EB7EEF41F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB77B807-441F-4234-901F-9D0E9596EF5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CFE73225-E389-405F-B131-2BDD3D066D42}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC242293-A7E5-4D2A-B976-D45A11886D9E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEE7E57E-7545-4FD3-9913-BA8461A5B167}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F02CBD02-EDED-446F-8862-763FD35E6E3D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E92A03D5-1962-448B-BABC-32CFEE7FEC4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8484E7E4-3564-4420-AF96-F416C4F2849D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{127634FF-4218-42D4-BE11-39FAE870D996}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7407,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D014B65-A55F-4B6E-964C-E9A05EE7BD65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7381C-D91F-469E-84A1-314E5531CD98}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8614,18 +8614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42152519-C8E4-45A5-B71B-9A0096BC1FB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F8BAA02-6132-44B5-82C7-1060D3191295}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F496866-F822-4417-8B0D-F0901F8FFA95}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C703DFEA-C4F8-4443-ABD8-0C91E282E509}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EB0800A-76BB-44CE-A21C-1DA756818CAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDF40112-F92F-4FB4-8310-3C00AF7ADC38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B289CFED-36A3-43D4-B92E-F354A3D87B56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF3A084F-3DE2-43CC-86D4-654479F87BB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54A334F8-3FE7-4800-812C-CFDA9D73B71D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58EA81D7-D4FE-4B27-966D-A99C4E05FD4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64460F69-1002-4057-837A-7B2D2C2F37F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4413E909-0BAB-40DD-90A5-7572DB21B68B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{596C9585-0410-487A-A14C-1D21991EF222}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{598A7F1C-7744-4036-9AC7-A9E99AB76FC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D55AF79B-788D-40C1-89D0-7CCF2ADE30B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7972DA9-373C-4EE1-9321-EAB358543DC7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B18BF9A1-3788-4BF1-ADC3-2A6B69871507}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D74FCC1-1FAC-4A79-B460-94356C007049}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D1A7C0C-D788-4869-BE85-BE588B151918}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2D077BC-2203-42B9-995D-88B9628BBBA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B20457DF-6731-474A-BCCE-6BD2E008AC4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D8AE3D9-3BF3-4575-922F-5C4E0A8068A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2B63292-7FE4-4843-8836-062B8ED03B74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CA1E2A2-BBDE-48F3-8CF8-5BA40D3FFCB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8638,7 +8638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934F1DFE-1797-402A-8077-359381C95482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39484B1A-7A3C-4A8D-8610-B1A979C2944B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9845,18 +9845,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{376C210F-55A8-40A2-B304-4613BACFFE5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1B5A736-5F11-4318-AA56-9B61E5D61B5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B7A5A0D-B21C-4381-A4BE-01B8B6617943}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{241469A5-DF80-449D-A638-5E870E1587A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5C18344-6629-4DD5-BE6D-7A03175C3ACE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49E34B11-1ABB-4EBB-B368-F360A45AD762}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAD75B0F-13EF-4D81-B72D-A25645DCD939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9926419-65C2-4AB2-AC64-F611B9C81289}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{587F7C7B-710A-4739-85A4-53418E5E90E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA123A00-A787-44BC-B058-5A9B915B5F33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67DE90E9-56C5-463A-BDC6-DB8E99CA3D42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8C9F95E-C5A3-4294-A346-7BD3674573CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA52E611-1DE9-4D82-9577-C68EA9708556}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{153EACE2-94E6-4F53-8B24-989DE82CE03E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8647AAD-3F9C-4613-9033-02315D3A2554}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ACB1234C-9A00-4BCB-8FA6-B762A2572EFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1326CDD0-9FBF-45DF-A1A2-58EBC10C96E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17803308-2E11-4E13-A188-3C04FC21801A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4995B9F4-AEFF-42D1-A325-CA9AD1C003B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12E8F0F3-63BE-41EB-B82E-4883B54A0823}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE267157-A65F-4821-91D5-2CF13B6D0A8C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4BFF428-EE2A-4ECB-BD24-25A2A97C018D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8C34854-7082-4CD9-96A7-21730F89C6A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9F1C04D-33BD-4579-8B7D-49C0972C94AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9869,7 +9869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2819DC1-7149-41BF-AD37-FFA2E47C8570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A25955-0E24-42DD-A590-8C54FD5A9AE8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11076,18 +11076,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F39A5FF-8AEE-45C3-ABA2-420F323F5017}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0E70FE0-26D0-4B92-A02D-080B85651065}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A400E888-4838-4F59-9C65-90F5A527678F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5FD84D5C-E71A-49B2-9194-AF8173DCD6D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACE0A117-E6B7-4912-A53E-49E7E24F5358}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2ABC501F-6C0D-4E75-9D90-1264362DE0A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFE2479A-5551-4E2F-8DC1-D59D48779232}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DF75317-1A3B-4EA2-91D4-696CE8334E5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09737EF1-722E-472A-8060-A8C5BFD7C52B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A847601-FAE9-419A-8B44-4F70DA0AD0F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4232012C-13DF-4C19-8C6F-C907544C11B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6712F50-E51F-49BC-B108-113C85EB6E3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AABA9F19-0BCF-4FEB-AD77-30325613C2F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31887F4E-217F-4461-9A4E-A8A7130707C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD9D17D2-C703-4089-BBCA-1DCA103A8FFE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8837CD33-F618-4F7F-97E1-29A15196A316}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33A3611C-1988-42EC-82DB-ABE8D8110F57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46465A20-481A-4C67-97FE-C0FE49A69F27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE3E8D4D-7970-498A-AE98-B49CF27BA0BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A108DC3-A06E-4D5A-AB3F-9DE3D893FD1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B280B372-1508-46E1-AC84-517605ACDF93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E9B5992-89CD-421D-90AB-9F0B8ACC0FB0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1118A021-C37C-4A3F-9F55-7E10C80721E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB3E7BD5-00B6-4965-9E71-05989813599F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11100,7 +11100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5538C7CA-A0FA-489E-82D5-4CF1E2263775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4680EF7D-434A-403D-BABB-B078E8352447}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12299,18 +12299,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68B02650-31E4-458B-9680-ECE81220C086}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{125E2C96-31DE-461C-B9EB-45907875A432}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5C1CF4E-F67A-4290-8328-38E9BA1D972B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FBC016B5-88D0-47A3-9664-DC8B8740BAD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B431CFFF-E7C9-4022-829B-04D611B0027D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9DCB93C-BB04-466D-A00B-C8FDE7BCAC36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAFDE861-D35F-4F04-9E39-DF3A8907853B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A06B6C58-2504-4C70-A72A-54A4C6029DE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5371B580-C647-4075-981A-91AB570D4681}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC025D0A-C61D-4701-BBBE-043399A0AC58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F299E1FF-4972-4C24-A7E0-515DC1021B0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B01B4CAD-927C-46B6-95BD-B6A2FC1EAA03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7A0A520-DD16-4F34-AC48-E8E116687764}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F60062E8-EA0B-4941-A230-8E57B430B8CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE1FD527-638A-42D2-9A13-82C4B7253372}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1CFB854B-2061-4213-AD60-01BB167D1E93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90EC7BE8-C420-4AC6-B3F1-153D12457101}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8906BDDC-5474-4A44-A415-FD4476B43BE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA24EE46-6878-46F3-9A8D-74DFBC5E8825}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E73CDB78-C3DB-4A49-9C96-765E14CBF634}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D3243D2-D7C5-43D4-8FFC-DE6EB3B5CC62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC89940A-4847-4A7B-A773-958B2629F45D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82B018A4-D0C1-435C-888C-7C027B0CCB82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA6E4EFD-19FF-409B-942F-628074563A12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12323,7 +12323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B0ABD2-F078-48FA-B267-801A6749002E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1078233-C5BC-4B3D-BD4B-3EC4F94158B4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13519,18 +13519,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE7180A0-D938-4C67-94E2-EF0DA029A9EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85EF06F8-704D-4440-8E6D-405032AB2A97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{235168F7-D680-4E1A-A816-C9CA89A7F7F2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C9CDF416-ED84-4D0E-97E0-934FF3765C05}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D987515D-D7C0-46D6-A7DE-2E5B8D72CBBD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CF813F3-89E5-4AA3-A672-70C95BF4FE1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1579F23B-DEB1-4899-B6A4-0EC84F718404}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DBA119A-B707-4ABD-BEC4-DB534204C69F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE606D52-679E-4305-AA0D-3F1105A3FEC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A42C871B-FA29-4A4E-B387-861C9696E0AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DE121F6-9718-44E1-80B8-93757056B5BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6145FE11-DD85-402E-86EE-737A93FA0042}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A191FB34-4E9E-46CC-88F9-3BDC3A6D9943}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EBCDA7E-4E5B-4C3B-B779-A5EEB2944976}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9946FA02-A942-4E8F-A561-FF4C4852C2A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BE0CA80-0ECD-4F49-B5C7-0B14E0BF5CB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{810579E9-C78C-49BD-8207-A682015BE254}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D236F9E-8958-497C-A007-384790E1E38B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2631367B-42CA-4BAF-92B6-34A52A235522}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{083F4A5E-2FA1-46D2-B1AC-F50CEF8B6D27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C7024AB-814E-4D4C-9006-5CA95350AAF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D14EBC80-8967-423C-BFF0-835C35F9835B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6A87E8D-ABE7-496B-A4CD-AF26E6E950DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8680491E-5B24-4BF9-9E64-9AAD63C23FC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13543,7 +13543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA30ECB9-6EDD-4D2B-9103-64CFD94F0232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CAC131-F5CB-4325-8182-A597008C588F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14731,18 +14731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3F54F99-5308-4BC0-BD5E-57497F5997BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5954818E-8FF9-43D8-B098-3C637B98AD02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52715B08-F9E4-4433-BF25-88258825156C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8092A33-0D60-4EBA-8F38-2AF1C2A6FD8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1A788B5-9D2D-4083-A5CE-A60E3F0AF6DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CF077B4-0A7A-4638-92A2-BF066F7B65D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6415FC48-EB8E-4AEE-A57C-57A24526F076}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CB3AD09-3209-47C8-B39E-8344043DF719}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2555BA06-3AD2-46DA-9563-AF47DAFAD93E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D65FBE29-9D93-4B85-A941-BB2115B001D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF4BCE58-FD5C-4A7E-A221-B34DF5AE67D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEC491A6-D5F8-47A6-99E6-6A3DF92A35D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7013E07-09FA-46BF-8CEB-1BEAF12DACD2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAE6E167-5135-4B70-86A8-24353D74C822}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{503D7F1C-14D3-4E81-BEE4-932C056169FE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{289BA812-C265-4FF9-8EBF-37EEBD83768F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A02CB93-D73E-4A71-9710-B0D8C8E7BCFB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C67CB4BE-E77A-4F88-84CC-5E7F24730AF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA2AFB41-794D-4A3D-B6C2-75CE3237035B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23D9DCA5-0540-4698-8623-46ECCEA50312}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2477CE1-B852-4016-BBD0-782B9EB77CDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75ED9340-5D18-4732-A94C-E91DF6434D80}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{862E9651-4FBD-4D32-AEDC-E7ACF5974705}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF8CD7B6-6D84-40E4-B725-B85963DA7289}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14755,7 +14755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62BC99F-3229-433D-B58E-E05F12EB7933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ED6139-9CBD-492B-8BBF-8F0C0D3DA74E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15943,18 +15943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0790F592-39CE-4E2C-9AA3-4C3607266D14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE5796AA-BE73-4B29-9D29-40B8D75852A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8A817FD-2B29-4C28-95D4-21B6F1FD016F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD8FEBD7-107E-40B2-B6CD-215D8962A958}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{876FB000-D61A-4B7A-8FBB-A165E45B374B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEC10737-B767-40EC-A6C1-FBC2935E04BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17C17539-9044-4BCB-84FE-1174D60AAE6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACA55FBF-D985-4749-A417-CD5C2FA6AEFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{208FDD40-D29B-40CD-AA37-8F64E2F92297}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB4D89FE-43FE-4AE3-804B-81D84C2EBBCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09AC874F-12E6-47B0-822D-D2A8047E2B9F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39A32BCE-CF7F-4BC2-A239-78EE233C046A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA349334-E522-4D20-AF89-C39BB454D62C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{488E1CDC-3D44-481E-B3BA-B48C942B982F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96511C5E-6063-4925-8098-DDA492D7EB5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{156263C0-6A13-476D-9F2B-567F5FDF2E9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C860F77-A2A0-408D-8674-6159891AFC0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87CCD18F-FF59-45C1-A753-DD1F449738E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D916E70-BDDD-48ED-BB60-7274B2FA34BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A69BC0A-AF01-4B05-A799-6ACA21D04E08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EAE7263-2C74-4EB4-9149-3D1A481DED15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DF038A5-B0A1-4879-AD3A-B0B37C8E3CD4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1650456D-3D68-4CD6-B011-2BC20525F939}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABE96892-2DDB-4ACC-8C1D-0EAAD0F22814}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
